--- a/STL/Polyformer Printed Parts Inventory _ checklist.xlsx
+++ b/STL/Polyformer Printed Parts Inventory _ checklist.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="67">
   <si>
     <t>Part name</t>
   </si>
@@ -106,10 +106,10 @@
     <t>https://github.com/Reiten966/Polyformer/tree/main/STL/Main_Body/</t>
   </si>
   <si>
-    <t>[Accent Color] Spool_Shaft.stl</t>
+    <t>Main_Body</t>
   </si>
   <si>
-    <t>Main_Body</t>
+    <t>[Accent Color] Spool_Shaft.stl</t>
   </si>
   <si>
     <t>[Accent Color] Spool_Shaft_Knob.stl</t>
@@ -218,7 +218,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -255,19 +255,25 @@
     <font>
       <u/>
       <sz val="10.0"/>
-      <color rgb="FF000000"/>
+      <color rgb="FF1155CC"/>
       <name val="Roboto"/>
     </font>
     <font>
       <u/>
       <sz val="10.0"/>
-      <color rgb="FF000000"/>
+      <color rgb="FF1155CC"/>
       <name val="Roboto"/>
     </font>
     <font>
       <u/>
       <sz val="10.0"/>
-      <color rgb="FF000000"/>
+      <color rgb="FF1155CC"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10.0"/>
+      <color rgb="FF1155CC"/>
       <name val="Roboto"/>
     </font>
     <font>
@@ -278,7 +284,7 @@
     <font>
       <u/>
       <sz val="10.0"/>
-      <color rgb="FF000000"/>
+      <color rgb="FF1155CC"/>
       <name val="Roboto"/>
     </font>
   </fonts>
@@ -396,7 +402,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -425,7 +431,9 @@
     <xf borderId="2" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="2" fillId="4" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
+    <xf borderId="2" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
@@ -436,7 +444,9 @@
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
@@ -447,7 +457,9 @@
     <xf borderId="7" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="7" fillId="4" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="7" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
@@ -469,10 +481,13 @@
     <xf borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="7" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="8" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="9" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -481,7 +496,9 @@
     <xf borderId="10" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="10" fillId="4" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="10" fillId="4" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="10" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
@@ -821,9 +838,8 @@
       <c r="B4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="10" t="str">
-        <f>HYPERLINK(CONCAT(A3,A4),A4)</f>
-        <v>Body.stl</v>
+      <c r="C4" s="10" t="s">
+        <v>6</v>
       </c>
       <c r="D4" s="11">
         <v>1.0</v>
@@ -861,9 +877,8 @@
       <c r="B5" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="15" t="str">
-        <f>HYPERLINK(CONCAT(A3,A5),A5)</f>
-        <v>Bottle_Cap.STL</v>
+      <c r="C5" s="15" t="s">
+        <v>8</v>
       </c>
       <c r="D5" s="16">
         <v>1.0</v>
@@ -901,9 +916,8 @@
       <c r="B6" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="15" t="str">
-        <f>HYPERLINK(CONCAT(A3,A6),A6)</f>
-        <v>Bottle_Holder.stl</v>
+      <c r="C6" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="D6" s="16">
         <v>1.0</v>
@@ -941,9 +955,8 @@
       <c r="B7" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="15" t="str">
-        <f>HYPERLINK(CONCAT(A3,A7),A7)</f>
-        <v>Cutter.stl</v>
+      <c r="C7" s="15" t="s">
+        <v>10</v>
       </c>
       <c r="D7" s="16">
         <v>1.0</v>
@@ -981,9 +994,8 @@
       <c r="B8" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="20" t="str">
-        <f>HYPERLINK(CONCAT(A3,A8),A8)</f>
-        <v>Sliding_Gauge.stl</v>
+      <c r="C8" s="20" t="s">
+        <v>11</v>
       </c>
       <c r="D8" s="21">
         <v>1.0</v>
@@ -1081,9 +1093,8 @@
       <c r="B11" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="10" t="str">
-        <f>HYPERLINK(CONCAT(A9,A11),A11)</f>
-        <v>Electronics_Bracket_4x.stl</v>
+      <c r="C11" s="10" t="s">
+        <v>13</v>
       </c>
       <c r="D11" s="11">
         <v>4.0</v>
@@ -1121,9 +1132,8 @@
       <c r="B12" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="15" t="str">
-        <f>HYPERLINK(CONCAT(A9,A12),A12)</f>
-        <v>Filament_Guidler.stl</v>
+      <c r="C12" s="15" t="s">
+        <v>15</v>
       </c>
       <c r="D12" s="16">
         <v>1.0</v>
@@ -1161,9 +1171,8 @@
       <c r="B13" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="15" t="str">
-        <f>HYPERLINK(CONCAT(A9,A13),A13)</f>
-        <v>Filament_Guidler_Mirrored.stl</v>
+      <c r="C13" s="15" t="s">
+        <v>16</v>
       </c>
       <c r="D13" s="16">
         <v>1.0</v>
@@ -1201,9 +1210,8 @@
       <c r="B14" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="15" t="str">
-        <f>HYPERLINK(CONCAT(A9,A14),A14)</f>
-        <v>Filament_Guidler_Spindle.stl</v>
+      <c r="C14" s="15" t="s">
+        <v>17</v>
       </c>
       <c r="D14" s="16">
         <v>1.0</v>
@@ -1241,9 +1249,8 @@
       <c r="B15" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="15" t="str">
-        <f>HYPERLINK(CONCAT(A9,A15),A15)</f>
-        <v>Meltzone_ABS_PETG_PET_PC_Nylon (Built-in Supports).stl</v>
+      <c r="C15" s="15" t="s">
+        <v>18</v>
       </c>
       <c r="D15" s="16">
         <v>1.0</v>
@@ -1281,9 +1288,8 @@
       <c r="B16" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="15" t="str">
-        <f>HYPERLINK(CONCAT(A9,A16),A16)</f>
-        <v>Outlet.stl</v>
+      <c r="C16" s="15" t="s">
+        <v>19</v>
       </c>
       <c r="D16" s="16">
         <v>1.0</v>
@@ -1321,9 +1327,8 @@
       <c r="B17" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="15" t="str">
-        <f>HYPERLINK(CONCAT(A9,A17),A17)</f>
-        <v>Ribbon_Holder.stl</v>
+      <c r="C17" s="15" t="s">
+        <v>20</v>
       </c>
       <c r="D17" s="16">
         <v>1.0</v>
@@ -1361,9 +1366,8 @@
       <c r="B18" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="15" t="str">
-        <f>HYPERLINK(CONCAT(A9,A18),A18)</f>
-        <v>Ribbon_Holder_Mirrored.stl</v>
+      <c r="C18" s="15" t="s">
+        <v>21</v>
       </c>
       <c r="D18" s="16">
         <v>1.0</v>
@@ -1401,9 +1405,8 @@
       <c r="B19" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="20" t="str">
-        <f>HYPERLINK(CONCAT(A9,A19),A19)</f>
-        <v>Ribbon_Holder_Spindle.stl</v>
+      <c r="C19" s="20" t="s">
+        <v>22</v>
       </c>
       <c r="D19" s="21">
         <v>1.0</v>
@@ -1501,9 +1504,8 @@
       <c r="B22" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="10" t="str">
-        <f>HYPERLINK(CONCAT(A20,A22),A22)</f>
-        <v>Gear_Box_CAM.stl</v>
+      <c r="C22" s="10" t="s">
+        <v>24</v>
       </c>
       <c r="D22" s="11">
         <v>1.0</v>
@@ -1541,9 +1543,8 @@
       <c r="B23" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="C23" s="15" t="str">
-        <f>HYPERLINK(CONCAT(A20,A23),A23)</f>
-        <v>Gear_Box_Cap.stl</v>
+      <c r="C23" s="15" t="s">
+        <v>26</v>
       </c>
       <c r="D23" s="16">
         <v>1.0</v>
@@ -1581,9 +1582,8 @@
       <c r="B24" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="15" t="str">
-        <f>HYPERLINK(CONCAT(A20,A24),A24)</f>
-        <v>Gear_Box_Drive.stl</v>
+      <c r="C24" s="15" t="s">
+        <v>27</v>
       </c>
       <c r="D24" s="16">
         <v>1.0</v>
@@ -1621,9 +1621,8 @@
       <c r="B25" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="C25" s="15" t="str">
-        <f>HYPERLINK(CONCAT(A20,A25),A25)</f>
-        <v>Gear_Box_Rotor.stl</v>
+      <c r="C25" s="15" t="s">
+        <v>28</v>
       </c>
       <c r="D25" s="16">
         <v>1.0</v>
@@ -1661,9 +1660,8 @@
       <c r="B26" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="C26" s="20" t="str">
-        <f>HYPERLINK(CONCAT(A20,A26),A26)</f>
-        <v>Motor_Mount.stl</v>
+      <c r="C26" s="20" t="s">
+        <v>29</v>
       </c>
       <c r="D26" s="21">
         <v>1.0</v>
@@ -1755,15 +1753,14 @@
       <c r="AA28" s="4"/>
     </row>
     <row r="29">
-      <c r="A29" s="8" t="s">
+      <c r="A29" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="B29" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="B29" s="28" t="s">
+      <c r="C29" s="10" t="s">
         <v>32</v>
-      </c>
-      <c r="C29" s="10" t="str">
-        <f>HYPERLINK(CONCAT(A27,A29),A29)</f>
-        <v>[Accent Color] Spool_Shaft.stl</v>
       </c>
       <c r="D29" s="11">
         <v>1.0</v>
@@ -1799,11 +1796,10 @@
         <v>33</v>
       </c>
       <c r="B30" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
-      <c r="C30" s="15" t="str">
-        <f>HYPERLINK(CONCAT(A27,A30),A30)</f>
-        <v>[Accent Color] Spool_Shaft_Knob.stl</v>
+      <c r="C30" s="15" t="s">
+        <v>33</v>
       </c>
       <c r="D30" s="16">
         <v>1.0</v>
@@ -1839,11 +1835,10 @@
         <v>34</v>
       </c>
       <c r="B31" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
-      <c r="C31" s="15" t="str">
-        <f>HYPERLINK(CONCAT(A27,A31),A31)</f>
-        <v>[Accent Color] Trim_Plate_x2.stl</v>
+      <c r="C31" s="15" t="s">
+        <v>34</v>
       </c>
       <c r="D31" s="16">
         <v>2.0</v>
@@ -1879,11 +1874,10 @@
         <v>35</v>
       </c>
       <c r="B32" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
-      <c r="C32" s="15" t="str">
-        <f>HYPERLINK(CONCAT(A27,A32),A32)</f>
-        <v>Feet_x2.stl</v>
+      <c r="C32" s="15" t="s">
+        <v>35</v>
       </c>
       <c r="D32" s="16">
         <v>2.0</v>
@@ -1919,11 +1913,10 @@
         <v>36</v>
       </c>
       <c r="B33" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
-      <c r="C33" s="15" t="str">
-        <f>HYPERLINK(CONCAT(A27,A33),A33)</f>
-        <v>Frame_Bracket_(Needs Supports).stl</v>
+      <c r="C33" s="15" t="s">
+        <v>36</v>
       </c>
       <c r="D33" s="16">
         <v>1.0</v>
@@ -1959,11 +1952,10 @@
         <v>37</v>
       </c>
       <c r="B34" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
-      <c r="C34" s="15" t="str">
-        <f>HYPERLINK(CONCAT(A27,A34),A34)</f>
-        <v>Left_Lower_Arm_(Built-in Supports).stl</v>
+      <c r="C34" s="15" t="s">
+        <v>37</v>
       </c>
       <c r="D34" s="16">
         <v>1.0</v>
@@ -1999,11 +1991,10 @@
         <v>38</v>
       </c>
       <c r="B35" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
-      <c r="C35" s="15" t="str">
-        <f>HYPERLINK(CONCAT(A27,A35),A35)</f>
-        <v>Left_Upper_Arm.stl</v>
+      <c r="C35" s="15" t="s">
+        <v>38</v>
       </c>
       <c r="D35" s="16">
         <v>1.0</v>
@@ -2039,11 +2030,10 @@
         <v>39</v>
       </c>
       <c r="B36" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
-      <c r="C36" s="15" t="str">
-        <f>HYPERLINK(CONCAT(A27,A36),A36)</f>
-        <v>Panel_Stabilizer_x2.stl</v>
+      <c r="C36" s="15" t="s">
+        <v>39</v>
       </c>
       <c r="D36" s="16">
         <v>2.0</v>
@@ -2079,11 +2069,10 @@
         <v>40</v>
       </c>
       <c r="B37" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
-      <c r="C37" s="15" t="str">
-        <f>HYPERLINK(CONCAT(A27,A37),A37)</f>
-        <v>Right_Arm_Connector.stl</v>
+      <c r="C37" s="15" t="s">
+        <v>40</v>
       </c>
       <c r="D37" s="16">
         <v>1.0</v>
@@ -2119,11 +2108,10 @@
         <v>41</v>
       </c>
       <c r="B38" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
-      <c r="C38" s="15" t="str">
-        <f>HYPERLINK(CONCAT(A27,A38),A38)</f>
-        <v>Right_Lower_Arm_(Built-in Supports).stl</v>
+      <c r="C38" s="15" t="s">
+        <v>41</v>
       </c>
       <c r="D38" s="16">
         <v>1.0</v>
@@ -2159,11 +2147,10 @@
         <v>42</v>
       </c>
       <c r="B39" s="29" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
-      <c r="C39" s="20" t="str">
-        <f>HYPERLINK(CONCAT(A27,A39),A39)</f>
-        <v>Right_Upper_Arm.stl</v>
+      <c r="C39" s="30" t="s">
+        <v>42</v>
       </c>
       <c r="D39" s="21">
         <v>1.0</v>
@@ -2261,9 +2248,8 @@
       <c r="B42" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="C42" s="10" t="str">
-        <f>HYPERLINK(CONCAT(A40,A42),A42)</f>
-        <v>Left_Lower_Panel_First_Half.stl</v>
+      <c r="C42" s="10" t="s">
+        <v>44</v>
       </c>
       <c r="D42" s="11">
         <v>1.0</v>
@@ -2301,9 +2287,8 @@
       <c r="B43" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="C43" s="15" t="str">
-        <f>HYPERLINK(CONCAT(A40,A43),A43)</f>
-        <v>Left_Lower_Panel_Second_Half.stl</v>
+      <c r="C43" s="15" t="s">
+        <v>46</v>
       </c>
       <c r="D43" s="16">
         <v>1.0</v>
@@ -2341,9 +2326,8 @@
       <c r="B44" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="C44" s="15" t="str">
-        <f>HYPERLINK(CONCAT(A40,A44),A44)</f>
-        <v>Left_Upper_Panel_First_Half.STL</v>
+      <c r="C44" s="15" t="s">
+        <v>47</v>
       </c>
       <c r="D44" s="16">
         <v>1.0</v>
@@ -2381,9 +2365,8 @@
       <c r="B45" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="C45" s="15" t="str">
-        <f>HYPERLINK(CONCAT(A40,A45),A45)</f>
-        <v>Left_Upper_Panel_Second_Half.STL</v>
+      <c r="C45" s="15" t="s">
+        <v>48</v>
       </c>
       <c r="D45" s="16">
         <v>1.0</v>
@@ -2421,9 +2404,8 @@
       <c r="B46" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="C46" s="15" t="str">
-        <f>HYPERLINK(CONCAT(A40,A46),A46)</f>
-        <v>Panel_Locks_x8.stl</v>
+      <c r="C46" s="15" t="s">
+        <v>49</v>
       </c>
       <c r="D46" s="16">
         <v>8.0</v>
@@ -2461,9 +2443,8 @@
       <c r="B47" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="C47" s="15" t="str">
-        <f>HYPERLINK(CONCAT(A40,A47),A47)</f>
-        <v>Rail_Cap_Left.stl</v>
+      <c r="C47" s="15" t="s">
+        <v>50</v>
       </c>
       <c r="D47" s="16">
         <v>1.0</v>
@@ -2501,9 +2482,8 @@
       <c r="B48" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="C48" s="15" t="str">
-        <f>HYPERLINK(CONCAT(A40,A48),A48)</f>
-        <v>Rail_Cap_Right.stl</v>
+      <c r="C48" s="15" t="s">
+        <v>51</v>
       </c>
       <c r="D48" s="16">
         <v>1.0</v>
@@ -2541,9 +2521,8 @@
       <c r="B49" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="C49" s="15" t="str">
-        <f>HYPERLINK(CONCAT(A40,A49),A49)</f>
-        <v>Right_Lower_Panel_First_Half.stl</v>
+      <c r="C49" s="15" t="s">
+        <v>52</v>
       </c>
       <c r="D49" s="16">
         <v>1.0</v>
@@ -2581,9 +2560,8 @@
       <c r="B50" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="C50" s="15" t="str">
-        <f>HYPERLINK(CONCAT(A40,A50),A50)</f>
-        <v>Right_Lower_Panel_Second_Half.stl</v>
+      <c r="C50" s="15" t="s">
+        <v>53</v>
       </c>
       <c r="D50" s="16">
         <v>1.0</v>
@@ -2621,9 +2599,8 @@
       <c r="B51" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="C51" s="15" t="str">
-        <f>HYPERLINK(CONCAT(A40,A51),A51)</f>
-        <v>Right_Upper_Panel_First_Half.stl</v>
+      <c r="C51" s="15" t="s">
+        <v>54</v>
       </c>
       <c r="D51" s="16">
         <v>1.0</v>
@@ -2661,9 +2638,8 @@
       <c r="B52" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="C52" s="15" t="str">
-        <f>HYPERLINK(CONCAT(A40,A52),A52)</f>
-        <v>Right_Upper_Panel_Second_Half.stl</v>
+      <c r="C52" s="15" t="s">
+        <v>55</v>
       </c>
       <c r="D52" s="16">
         <v>1.0</v>
@@ -2701,9 +2677,8 @@
       <c r="B53" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="C53" s="15" t="str">
-        <f>HYPERLINK(CONCAT(A40,A53),A53)</f>
-        <v>Top_Panel.stl</v>
+      <c r="C53" s="15" t="s">
+        <v>56</v>
       </c>
       <c r="D53" s="16">
         <v>1.0</v>
@@ -2741,9 +2716,8 @@
       <c r="B54" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="C54" s="20" t="str">
-        <f>HYPERLINK(CONCAT(A40,A54),A54)</f>
-        <v>Top_Panel_Shaft.stl</v>
+      <c r="C54" s="20" t="s">
+        <v>57</v>
       </c>
       <c r="D54" s="21">
         <v>1.0</v>
@@ -2841,9 +2815,8 @@
       <c r="B57" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="C57" s="10" t="str">
-        <f>HYPERLINK(CONCAT(A55,A57),A57)</f>
-        <v>[Accent Color] Spool_Body.stl</v>
+      <c r="C57" s="10" t="s">
+        <v>59</v>
       </c>
       <c r="D57" s="11">
         <v>1.0</v>
@@ -2881,9 +2854,8 @@
       <c r="B58" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="C58" s="15" t="str">
-        <f>HYPERLINK(CONCAT(A55,A58),A58)</f>
-        <v>[Accent Color] Spool_Shield_Left.stl</v>
+      <c r="C58" s="15" t="s">
+        <v>61</v>
       </c>
       <c r="D58" s="16">
         <v>1.0</v>
@@ -2921,9 +2893,8 @@
       <c r="B59" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="C59" s="15" t="str">
-        <f>HYPERLINK(CONCAT(A55,A59),A59)</f>
-        <v>[Accent Color] Spool_Shield_Right.stl</v>
+      <c r="C59" s="15" t="s">
+        <v>62</v>
       </c>
       <c r="D59" s="16">
         <v>1.0</v>
@@ -2961,14 +2932,13 @@
       <c r="B60" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="C60" s="20" t="str">
-        <f>HYPERLINK(CONCAT(A55,A60),A60)</f>
-        <v>Filament_Mount.stl</v>
+      <c r="C60" s="20" t="s">
+        <v>63</v>
       </c>
       <c r="D60" s="21">
         <v>1.0</v>
       </c>
-      <c r="E60" s="30" t="b">
+      <c r="E60" s="31" t="b">
         <v>0</v>
       </c>
       <c r="F60" s="4"/>
@@ -2995,7 +2965,7 @@
       <c r="AA60" s="4"/>
     </row>
     <row r="61" hidden="1">
-      <c r="A61" s="31" t="s">
+      <c r="A61" s="32" t="s">
         <v>64</v>
       </c>
       <c r="B61" s="4"/>
@@ -3055,20 +3025,19 @@
       <c r="AA62" s="4"/>
     </row>
     <row r="63">
-      <c r="A63" s="32" t="s">
+      <c r="A63" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="B63" s="33" t="s">
+      <c r="B63" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="C63" s="34" t="str">
-        <f>HYPERLINK(CONCAT(A61,A63),A63)</f>
-        <v>Mini_Polyformer.STL</v>
+      <c r="C63" s="35" t="s">
+        <v>65</v>
       </c>
-      <c r="D63" s="35">
+      <c r="D63" s="36">
         <v>1.0</v>
       </c>
-      <c r="E63" s="36" t="b">
+      <c r="E63" s="37" t="b">
         <v>0</v>
       </c>
       <c r="F63" s="4"/>
@@ -30537,6 +30506,56 @@
       <c r="AA1009" s="4"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="C4"/>
+    <hyperlink r:id="rId2" ref="C5"/>
+    <hyperlink r:id="rId3" ref="C6"/>
+    <hyperlink r:id="rId4" ref="C7"/>
+    <hyperlink r:id="rId5" ref="C8"/>
+    <hyperlink r:id="rId6" ref="C11"/>
+    <hyperlink r:id="rId7" ref="C12"/>
+    <hyperlink r:id="rId8" ref="C13"/>
+    <hyperlink r:id="rId9" ref="C14"/>
+    <hyperlink r:id="rId10" ref="C15"/>
+    <hyperlink r:id="rId11" ref="C16"/>
+    <hyperlink r:id="rId12" ref="C17"/>
+    <hyperlink r:id="rId13" ref="C18"/>
+    <hyperlink r:id="rId14" ref="C19"/>
+    <hyperlink r:id="rId15" ref="C22"/>
+    <hyperlink r:id="rId16" ref="C23"/>
+    <hyperlink r:id="rId17" ref="C24"/>
+    <hyperlink r:id="rId18" ref="C25"/>
+    <hyperlink r:id="rId19" ref="C26"/>
+    <hyperlink r:id="rId20" ref="C29"/>
+    <hyperlink r:id="rId21" ref="C30"/>
+    <hyperlink r:id="rId22" ref="C31"/>
+    <hyperlink r:id="rId23" ref="C32"/>
+    <hyperlink r:id="rId24" ref="C33"/>
+    <hyperlink r:id="rId25" ref="C34"/>
+    <hyperlink r:id="rId26" ref="C35"/>
+    <hyperlink r:id="rId27" ref="C36"/>
+    <hyperlink r:id="rId28" ref="C37"/>
+    <hyperlink r:id="rId29" ref="C38"/>
+    <hyperlink r:id="rId30" ref="C39"/>
+    <hyperlink r:id="rId31" ref="C42"/>
+    <hyperlink r:id="rId32" ref="C43"/>
+    <hyperlink r:id="rId33" ref="C44"/>
+    <hyperlink r:id="rId34" ref="C45"/>
+    <hyperlink r:id="rId35" ref="C46"/>
+    <hyperlink r:id="rId36" ref="C47"/>
+    <hyperlink r:id="rId37" ref="C48"/>
+    <hyperlink r:id="rId38" ref="C49"/>
+    <hyperlink r:id="rId39" ref="C50"/>
+    <hyperlink r:id="rId40" ref="C51"/>
+    <hyperlink r:id="rId41" ref="C52"/>
+    <hyperlink r:id="rId42" ref="C53"/>
+    <hyperlink r:id="rId43" ref="C54"/>
+    <hyperlink r:id="rId44" ref="C57"/>
+    <hyperlink r:id="rId45" ref="C58"/>
+    <hyperlink r:id="rId46" ref="C59"/>
+    <hyperlink r:id="rId47" ref="C60"/>
+    <hyperlink r:id="rId48" ref="C63"/>
+  </hyperlinks>
+  <drawing r:id="rId49"/>
 </worksheet>
 </file>